--- a/Uranian_easternElongation_times.xlsx
+++ b/Uranian_easternElongation_times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bob.zavala/Desktop/bobMacBackUp/NOFS/Observing/solarSystemEphem/UKIRT/MSB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97418443-148D-4E4A-B7C3-5CB21DD9AE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD64DB-C664-6842-9E03-878AE80C617D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10400" yWindow="5840" windowWidth="28040" windowHeight="17440" xr2:uid="{64511C18-B10F-4B40-B195-4ED3C38D64BB}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,7 +771,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,8 +843,8 @@
         <v>45850.943442583331</v>
       </c>
       <c r="F4" s="6">
-        <f ca="1">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1) + INT(D4) + (MOD(D4, 1) * 24/24)</f>
-        <v>45850.943442583331</v>
+        <f ca="1">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 0) + INT(D4) + (MOD(D4, 1) * 24/24)</f>
+        <v>45849.943442583331</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -866,6 +866,10 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D5/30)) + MOD(D5, 30)</f>
         <v>45852.35594258333</v>
       </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F18" ca="1" si="2">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 0) + INT(D5) + (MOD(D5, 1) * 24/24)</f>
+        <v>45851.35594258333</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -886,6 +890,10 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D6/30)) + MOD(D6, 30)</f>
         <v>45853.768442583336</v>
       </c>
+      <c r="F6" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45852.768442583336</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -906,6 +914,10 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D7/30)) + MOD(D7, 30)</f>
         <v>45855.180942583334</v>
       </c>
+      <c r="F7" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45854.180942583334</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -926,6 +938,10 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D8/30)) + MOD(D8, 30)</f>
         <v>45856.593442583333</v>
       </c>
+      <c r="F8" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45855.593442583333</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -946,6 +962,10 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D9/30)) + MOD(D9, 30)</f>
         <v>45858.005942583331</v>
       </c>
+      <c r="F9" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45857.005942583331</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -966,6 +986,10 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D10/30)) + MOD(D10, 30)</f>
         <v>45859.422609250003</v>
       </c>
+      <c r="F10" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45858.422609250003</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -986,6 +1010,10 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D11/30)) + MOD(D11, 30)</f>
         <v>45860.830942583336</v>
       </c>
+      <c r="F11" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45859.830942583336</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1006,6 +1034,10 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D12/30)) + MOD(D12, 30)</f>
         <v>45862.243442583334</v>
       </c>
+      <c r="F12" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45861.243442583334</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1026,6 +1058,10 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D13/30)) + MOD(D13, 30)</f>
         <v>45863.660109249999</v>
       </c>
+      <c r="F13" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45862.660109249999</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1046,6 +1082,10 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D14/30)) + MOD(D14, 30)</f>
         <v>45865.072609249997</v>
       </c>
+      <c r="F14" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45864.072609249997</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
@@ -1066,6 +1106,10 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D15/30)) + MOD(D15, 30)</f>
         <v>45866.485109250003</v>
       </c>
+      <c r="F15" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45865.485109250003</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1086,8 +1130,12 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D16/30)) + MOD(D16, 30)</f>
         <v>45867.897609250002</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45866.897609250002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>29</v>
       </c>
@@ -1106,8 +1154,12 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D17/30)) + MOD(D17, 30)</f>
         <v>45870.31010925</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45868.31010925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>30</v>
       </c>
@@ -1125,6 +1177,10 @@
       <c r="E18">
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D18/30)) + MOD(D18, 30)</f>
         <v>45871.722609249999</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45869.722609249999</v>
       </c>
     </row>
   </sheetData>

--- a/Uranian_easternElongation_times.xlsx
+++ b/Uranian_easternElongation_times.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bob.zavala/Desktop/bobMacBackUp/NOFS/Observing/solarSystemEphem/UKIRT/MSB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD64DB-C664-6842-9E03-878AE80C617D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E62259A-11EB-F649-A9EA-37875D75EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="5840" windowWidth="28040" windowHeight="17440" xr2:uid="{64511C18-B10F-4B40-B195-4ED3C38D64BB}"/>
+    <workbookView xWindow="4940" yWindow="5920" windowWidth="25380" windowHeight="17440" activeTab="2" xr2:uid="{64511C18-B10F-4B40-B195-4ED3C38D64BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Oberon" sheetId="1" r:id="rId1"/>
+    <sheet name="Oberon IMCCE" sheetId="3" r:id="rId2"/>
+    <sheet name="Miranda" sheetId="2" r:id="rId3"/>
+    <sheet name="Miranda IMCCE" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_5499787c_1368_4867_9556_e71b0432fe3d" localSheetId="1">'Oberon IMCCE'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,8 +41,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Bob T. Zavala</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{231D87F9-6DF4-844F-B036-6B0AEC9F93A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bob T. Zavala:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Add ~11 hours to get a better estimate of the eastern elongation time.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>Oberon</t>
   </si>
@@ -75,10 +123,163 @@
     <t>October</t>
   </si>
   <si>
-    <t>Predicted Eastern Elongation (UT)</t>
-  </si>
-  <si>
     <t>Miranda</t>
+  </si>
+  <si>
+    <t>2025-07-18T13:00:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T14:00:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T15:00:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T16:00:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T17:00:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T18:00:00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date (UTC) </t>
+  </si>
+  <si>
+    <t>X(")</t>
+  </si>
+  <si>
+    <t>Y(")</t>
+  </si>
+  <si>
+    <t>s(")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag. </t>
+  </si>
+  <si>
+    <t>Δ𝛿(")</t>
+  </si>
+  <si>
+    <t>Δ𝛼(")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p(º) </t>
+  </si>
+  <si>
+    <t>Estimated Eastern Elongation (UT)</t>
+  </si>
+  <si>
+    <t>2025-07-18T13:15:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T13:30:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T13:45:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T14:15:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T14:30:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T14:45:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T15:15:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T15:30:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T15:45:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T16:15:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T16:30:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T16:45:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T17:15:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T17:30:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T17:45:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T18:15:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T18:30:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T18:45:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-18T16:06:00.000</t>
+  </si>
+  <si>
+    <t>Numerical Prediction E. Elongation</t>
+  </si>
+  <si>
+    <t>2025-08-01T03:21:00.000</t>
+  </si>
+  <si>
+    <t>2025-08-01T03:22:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:16:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:17:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:18:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:19:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:20:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:21:00.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:18:53.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:18:54.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:18:55.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:18:56.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:18:57.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:18:58.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:18:59.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:19:01.000</t>
+  </si>
+  <si>
+    <t>2025-07-17T16:19:02.000</t>
   </si>
 </sst>
 </file>
@@ -88,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +302,37 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -124,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -134,6 +366,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -142,6 +375,20 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,6 +404,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,33 +726,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C737F3E-A863-B847-B87F-142E24554848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C737F3E-A863-B847-B87F-142E24554848}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="51">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +764,7 @@
         <v>13.463234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -525,11 +780,14 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21" customHeight="1">
       <c r="A4">
         <v>8</v>
       </c>
@@ -548,13 +806,16 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D4)) + (MOD(D4, 1) * DAY(EOMONTH(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), 0)))</f>
         <v>46395.011440499999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <f ca="1">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 0) + INT(D4) + (MOD(D4, 1) * 24/24)</f>
         <v>45856.2261755</v>
       </c>
+      <c r="G4" s="14">
+        <v>45856.67083333333</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>21</v>
       </c>
@@ -573,17 +834,20 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D5)) + (MOD(D5, 1) * DAY(EOMONTH(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), 0)))</f>
         <v>46805.749357166664</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <f ca="1">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 0) + INT(D5) + (MOD(D5, 1) * 24/24)</f>
         <v>45869.701592166668</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="14">
+        <v>45870.139930555553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -602,12 +866,12 @@
         <f t="shared" ref="E7:E9" ca="1" si="0">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D7/30)) + MOD(D7, 30)</f>
         <v>45853.1399255</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <f ca="1">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$6), 0) + INT(D7) + (MOD(D7, 1) * 24/24)</f>
         <v>45883.1399255</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>17</v>
       </c>
@@ -626,12 +890,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>45866.601592166669</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <f ca="1">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$6), 0) + INT(D8) + (MOD(D8, 1) * 24/24)</f>
         <v>45896.601592166669</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>30</v>
       </c>
@@ -650,17 +914,17 @@
         <f t="shared" ca="1" si="0"/>
         <v>45881.068258833337</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <f ca="1">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$6), 0) + INT(D9) + (MOD(D9, 1) * 24/24)</f>
         <v>45910.068258833337</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>13</v>
       </c>
@@ -679,12 +943,12 @@
         <f t="shared" ref="E12:E13" ca="1" si="3">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D12/30)) + MOD(D12, 30)</f>
         <v>45862.539092166669</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <f ca="1">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$11), 0) + INT(D12) + (MOD(D12, 1) * 24/24)</f>
         <v>45923.539092166669</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>26</v>
       </c>
@@ -703,17 +967,17 @@
         <f t="shared" ca="1" si="3"/>
         <v>45877.009925500002</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <f ca="1">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$11), 0) + INT(D13) + (MOD(D13, 1) * 24/24)</f>
         <v>45937.009925500002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>10</v>
       </c>
@@ -732,12 +996,12 @@
         <f t="shared" ref="E16:E17" ca="1" si="6">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D16/30)) + MOD(D16, 30)</f>
         <v>45859.480758833335</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <f ca="1">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$15), 0) + INT(D16) + (MOD(D16, 1) * 24/24)</f>
         <v>45950.480758833335</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>23</v>
       </c>
@@ -756,9 +1020,788 @@
         <f t="shared" ca="1" si="6"/>
         <v>45873.947425500002</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <f ca="1">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$15), 0) + INT(D17) + (MOD(D17, 1) * 24/24)</f>
         <v>45963.947425500002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709ECBB7-EDEB-F240-8C85-077E2980E842}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10">
+        <v>37.92</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-2.4060000000000001</v>
+      </c>
+      <c r="D2" s="10">
+        <v>93.63</v>
+      </c>
+      <c r="E2" s="10">
+        <v>37.996000000000002</v>
+      </c>
+      <c r="F2" s="10">
+        <v>40.344461000000003</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-2.4068999999999998</v>
+      </c>
+      <c r="H2" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" ht="20">
+      <c r="A3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="10">
+        <v>37.935000000000002</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-2.2120000000000002</v>
+      </c>
+      <c r="D3" s="10">
+        <v>93.337000000000003</v>
+      </c>
+      <c r="E3" s="10">
+        <v>37.999000000000002</v>
+      </c>
+      <c r="F3" s="10">
+        <v>40.360787999999999</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-2.2134200000000002</v>
+      </c>
+      <c r="H3" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" ht="20">
+      <c r="A4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="10">
+        <v>37.948999999999998</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-2.0190000000000001</v>
+      </c>
+      <c r="D4" s="10">
+        <v>93.045000000000002</v>
+      </c>
+      <c r="E4" s="10">
+        <v>38.003</v>
+      </c>
+      <c r="F4" s="10">
+        <v>40.376168999999997</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-2.0198849999999999</v>
+      </c>
+      <c r="H4" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" ht="20">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10">
+        <v>37.963000000000001</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-1.825</v>
+      </c>
+      <c r="D5" s="10">
+        <v>92.751999999999995</v>
+      </c>
+      <c r="E5" s="10">
+        <v>38.006999999999998</v>
+      </c>
+      <c r="F5" s="10">
+        <v>40.390604000000003</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-1.8263</v>
+      </c>
+      <c r="H5" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" ht="20">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10">
+        <v>37.975000000000001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-1.631</v>
+      </c>
+      <c r="D6" s="10">
+        <v>92.46</v>
+      </c>
+      <c r="E6" s="10">
+        <v>38.01</v>
+      </c>
+      <c r="F6" s="10">
+        <v>40.404091999999999</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-1.6326689999999999</v>
+      </c>
+      <c r="H6" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" ht="20">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10">
+        <v>37.987000000000002</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-1.4379999999999999</v>
+      </c>
+      <c r="D7" s="10">
+        <v>92.167000000000002</v>
+      </c>
+      <c r="E7" s="10">
+        <v>38.014000000000003</v>
+      </c>
+      <c r="F7" s="10">
+        <v>40.416632999999997</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-1.438998</v>
+      </c>
+      <c r="H7" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" ht="20">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10">
+        <v>37.997999999999998</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-1.244</v>
+      </c>
+      <c r="D8" s="10">
+        <v>91.875</v>
+      </c>
+      <c r="E8" s="10">
+        <v>38.018000000000001</v>
+      </c>
+      <c r="F8" s="10">
+        <v>40.428227</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-1.24529</v>
+      </c>
+      <c r="H8" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" ht="20">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="10">
+        <v>38.008000000000003</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-1.05</v>
+      </c>
+      <c r="D9" s="10">
+        <v>91.582999999999998</v>
+      </c>
+      <c r="E9" s="10">
+        <v>38.023000000000003</v>
+      </c>
+      <c r="F9" s="10">
+        <v>40.438873000000001</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-1.0515490000000001</v>
+      </c>
+      <c r="H9" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" ht="20">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10">
+        <v>38.017000000000003</v>
+      </c>
+      <c r="C10" s="10">
+        <v>-0.85699999999999998</v>
+      </c>
+      <c r="D10" s="10">
+        <v>91.290999999999997</v>
+      </c>
+      <c r="E10" s="10">
+        <v>38.027000000000001</v>
+      </c>
+      <c r="F10" s="10">
+        <v>40.448571999999999</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-0.85778100000000002</v>
+      </c>
+      <c r="H10" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="20">
+      <c r="A11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="10">
+        <v>38.024999999999999</v>
+      </c>
+      <c r="C11" s="10">
+        <v>-0.66300000000000003</v>
+      </c>
+      <c r="D11" s="10">
+        <v>90.998000000000005</v>
+      </c>
+      <c r="E11" s="10">
+        <v>38.030999999999999</v>
+      </c>
+      <c r="F11" s="10">
+        <v>40.457321999999998</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-0.663991</v>
+      </c>
+      <c r="H11" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="20">
+      <c r="A12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="10">
+        <v>38.033000000000001</v>
+      </c>
+      <c r="C12" s="10">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="D12" s="10">
+        <v>90.706000000000003</v>
+      </c>
+      <c r="E12" s="10">
+        <v>38.036000000000001</v>
+      </c>
+      <c r="F12" s="10">
+        <v>40.465124000000003</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-0.47018199999999999</v>
+      </c>
+      <c r="H12" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="20">
+      <c r="A13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="10">
+        <v>38.039000000000001</v>
+      </c>
+      <c r="C13" s="10">
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="D13" s="10">
+        <v>90.414000000000001</v>
+      </c>
+      <c r="E13" s="10">
+        <v>38.04</v>
+      </c>
+      <c r="F13" s="10">
+        <v>40.471978</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-0.27635900000000002</v>
+      </c>
+      <c r="H13" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="21">
+      <c r="A14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="13">
+        <v>38.045000000000002</v>
+      </c>
+      <c r="C14" s="13">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>90.122</v>
+      </c>
+      <c r="E14" s="13">
+        <v>38.045000000000002</v>
+      </c>
+      <c r="F14" s="13">
+        <v>40.477882999999999</v>
+      </c>
+      <c r="G14" s="13">
+        <v>-8.2527000000000003E-2</v>
+      </c>
+      <c r="H14" s="13">
+        <v>14.44</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="20">
+      <c r="A15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="10">
+        <v>38.048999999999999</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.113</v>
+      </c>
+      <c r="D15" s="10">
+        <v>89.83</v>
+      </c>
+      <c r="E15" s="10">
+        <v>38.048999999999999</v>
+      </c>
+      <c r="F15" s="10">
+        <v>40.482838999999998</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.11131000000000001</v>
+      </c>
+      <c r="H15" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="20">
+      <c r="A16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="10">
+        <v>38.052999999999997</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D16" s="10">
+        <v>89.539000000000001</v>
+      </c>
+      <c r="E16" s="10">
+        <v>38.054000000000002</v>
+      </c>
+      <c r="F16" s="10">
+        <v>40.486846</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.305147</v>
+      </c>
+      <c r="H16" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="20">
+      <c r="A17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="10">
+        <v>38.055999999999997</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="10">
+        <v>89.247</v>
+      </c>
+      <c r="E17" s="10">
+        <v>38.058999999999997</v>
+      </c>
+      <c r="F17" s="10">
+        <v>40.489904000000003</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.49897900000000001</v>
+      </c>
+      <c r="H17" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="20">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>38.058</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D18" s="10">
+        <v>88.954999999999998</v>
+      </c>
+      <c r="E18" s="10">
+        <v>38.064</v>
+      </c>
+      <c r="F18" s="10">
+        <v>40.492012000000003</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.69280299999999995</v>
+      </c>
+      <c r="H18" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="20">
+      <c r="A19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="10">
+        <v>38.058999999999997</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D19" s="10">
+        <v>88.664000000000001</v>
+      </c>
+      <c r="E19" s="10">
+        <v>38.069000000000003</v>
+      </c>
+      <c r="F19" s="10">
+        <v>40.493170999999997</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.88661299999999998</v>
+      </c>
+      <c r="H19" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="20">
+      <c r="A20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="10">
+        <v>38.058999999999997</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="D20" s="10">
+        <v>88.372</v>
+      </c>
+      <c r="E20" s="10">
+        <v>38.073999999999998</v>
+      </c>
+      <c r="F20" s="10">
+        <v>40.493380999999999</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1.0804050000000001</v>
+      </c>
+      <c r="H20" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="20">
+      <c r="A21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="10">
+        <v>38.058</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="D21" s="10">
+        <v>88.081000000000003</v>
+      </c>
+      <c r="E21" s="10">
+        <v>38.08</v>
+      </c>
+      <c r="F21" s="10">
+        <v>40.492641999999996</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1.2741750000000001</v>
+      </c>
+      <c r="H21" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="20">
+      <c r="A22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10">
+        <v>38.057000000000002</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="D22" s="10">
+        <v>87.789000000000001</v>
+      </c>
+      <c r="E22" s="10">
+        <v>38.085000000000001</v>
+      </c>
+      <c r="F22" s="10">
+        <v>40.490952999999998</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1.4679169999999999</v>
+      </c>
+      <c r="H22" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="20">
+      <c r="A23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="10">
+        <v>38.054000000000002</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1.663</v>
+      </c>
+      <c r="D23" s="10">
+        <v>87.498000000000005</v>
+      </c>
+      <c r="E23" s="10">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="F23" s="10">
+        <v>40.488315</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1.6616280000000001</v>
+      </c>
+      <c r="H23" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" ht="20">
+      <c r="A24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="10">
+        <v>38.051000000000002</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1.857</v>
+      </c>
+      <c r="D24" s="10">
+        <v>87.206999999999994</v>
+      </c>
+      <c r="E24" s="10">
+        <v>38.095999999999997</v>
+      </c>
+      <c r="F24" s="10">
+        <v>40.484727999999997</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1.855302</v>
+      </c>
+      <c r="H24" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" ht="20">
+      <c r="A25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="10">
+        <v>38.045999999999999</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D25" s="10">
+        <v>86.915000000000006</v>
+      </c>
+      <c r="E25" s="10">
+        <v>38.101999999999997</v>
+      </c>
+      <c r="F25" s="10">
+        <v>40.480190999999998</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2.0489350000000002</v>
+      </c>
+      <c r="H25" s="10">
+        <v>14.44</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="21">
+      <c r="A27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="13">
+        <v>38.046999999999997</v>
+      </c>
+      <c r="C27" s="13">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D27" s="13">
+        <v>90.006</v>
+      </c>
+      <c r="E27" s="13">
+        <v>38.046999999999997</v>
+      </c>
+      <c r="F27" s="13">
+        <v>40.479979</v>
+      </c>
+      <c r="G27" s="13">
+        <v>-4.9919999999999999E-3</v>
+      </c>
+      <c r="H27" s="13">
+        <v>14.44</v>
+      </c>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" ht="21">
+      <c r="A29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="13">
+        <v>38.526000000000003</v>
+      </c>
+      <c r="C29" s="13">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D29" s="13">
+        <v>90.01</v>
+      </c>
+      <c r="E29" s="13">
+        <v>38.526000000000003</v>
+      </c>
+      <c r="F29" s="13">
+        <v>41.014828000000001</v>
+      </c>
+      <c r="G29" s="13">
+        <v>-7.7039999999999999E-3</v>
+      </c>
+      <c r="H29" s="13">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="21">
+      <c r="A30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="13">
+        <v>38.526000000000003</v>
+      </c>
+      <c r="C30" s="13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D30" s="13">
+        <v>89.99</v>
+      </c>
+      <c r="E30" s="13">
+        <v>38.526000000000003</v>
+      </c>
+      <c r="F30" s="13">
+        <v>41.015163000000001</v>
+      </c>
+      <c r="G30" s="13">
+        <v>5.352E-3</v>
+      </c>
+      <c r="H30" s="13">
+        <v>14.42</v>
       </c>
     </row>
   </sheetData>
@@ -766,23 +1809,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819BC-1733-9A41-8A07-F8648658B597}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="34">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -790,20 +1834,20 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1.4134789999999999</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -819,15 +1863,15 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>21.2</v>
       </c>
       <c r="C4">
@@ -842,16 +1886,16 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D4/30)) + MOD(D4, 30)</f>
         <v>45850.943442583331</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <f ca="1">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 0) + INT(D4) + (MOD(D4, 1) * 24/24)</f>
         <v>45849.943442583331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>12</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>7.1</v>
       </c>
       <c r="C5">
@@ -866,16 +1910,16 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D5/30)) + MOD(D5, 30)</f>
         <v>45852.35594258333</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F18" ca="1" si="2">DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 0) + INT(D5) + (MOD(D5, 1) * 24/24)</f>
         <v>45851.35594258333</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>13</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>17</v>
       </c>
       <c r="C6">
@@ -890,16 +1934,16 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D6/30)) + MOD(D6, 30)</f>
         <v>45853.768442583336</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45852.768442583336</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>2.9</v>
       </c>
       <c r="C7">
@@ -914,13 +1958,13 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D7/30)) + MOD(D7, 30)</f>
         <v>45855.180942583334</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45854.180942583334</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+    <row r="8" spans="1:7">
+      <c r="A8" s="9">
         <v>16</v>
       </c>
       <c r="B8">
@@ -938,16 +1982,19 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D8/30)) + MOD(D8, 30)</f>
         <v>45856.593442583333</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45855.593442583333</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="5">
+        <v>45855.679826388892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>17</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>22.7</v>
       </c>
       <c r="C9">
@@ -962,16 +2009,16 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D9/30)) + MOD(D9, 30)</f>
         <v>45858.005942583331</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45857.005942583331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>19</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>8.6999999999999993</v>
       </c>
       <c r="C10">
@@ -986,16 +2033,16 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D10/30)) + MOD(D10, 30)</f>
         <v>45859.422609250003</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45858.422609250003</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>20</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>18.5</v>
       </c>
       <c r="C11">
@@ -1010,16 +2057,16 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D11/30)) + MOD(D11, 30)</f>
         <v>45860.830942583336</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45859.830942583336</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>22</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>4.4000000000000004</v>
       </c>
       <c r="C12">
@@ -1034,16 +2081,16 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D12/30)) + MOD(D12, 30)</f>
         <v>45862.243442583334</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45861.243442583334</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>23</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>14.4</v>
       </c>
       <c r="C13">
@@ -1058,16 +2105,16 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D13/30)) + MOD(D13, 30)</f>
         <v>45863.660109249999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45862.660109249999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>25</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>0.3</v>
       </c>
       <c r="C14">
@@ -1082,13 +2129,13 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D14/30)) + MOD(D14, 30)</f>
         <v>45865.072609249997</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45864.072609249997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+    <row r="15" spans="1:7">
+      <c r="A15" s="9">
         <v>26</v>
       </c>
       <c r="B15">
@@ -1106,16 +2153,16 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D15/30)) + MOD(D15, 30)</f>
         <v>45866.485109250003</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45865.485109250003</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>27</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>20.100000000000001</v>
       </c>
       <c r="C16">
@@ -1130,16 +2177,16 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D16/30)) + MOD(D16, 30)</f>
         <v>45867.897609250002</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45866.897609250002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>29</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>6</v>
       </c>
       <c r="C17">
@@ -1154,16 +2201,16 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D17/30)) + MOD(D17, 30)</f>
         <v>45870.31010925</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45868.31010925</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>30</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>15.9</v>
       </c>
       <c r="C18">
@@ -1178,9 +2225,469 @@
         <f ca="1">EDATE(DATE(YEAR(TODAY()), MONTH(1 &amp; $A$2), 1), INT(D18/30)) + MOD(D18, 30)</f>
         <v>45871.722609249999</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>45869.722609249999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC7E083-D85B-4F42-9C58-752651EA55E1}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="19">
+      <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20">
+      <c r="A2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="10">
+        <v>8.5920000000000005</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>90.540999999999997</v>
+      </c>
+      <c r="E2" s="10">
+        <v>8.5920000000000005</v>
+      </c>
+      <c r="F2" s="10">
+        <v>9.1410409999999995</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-8.115E-2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20">
+      <c r="A3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="10">
+        <v>8.593</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>90.358000000000004</v>
+      </c>
+      <c r="E3" s="10">
+        <v>8.593</v>
+      </c>
+      <c r="F3" s="10">
+        <v>9.1420980000000007</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-5.3790999999999999E-2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20">
+      <c r="A4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="10">
+        <v>8.5939999999999994</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>90.176000000000002</v>
+      </c>
+      <c r="E4" s="10">
+        <v>8.5939999999999994</v>
+      </c>
+      <c r="F4" s="10">
+        <v>9.1430679999999995</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-2.6431E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20">
+      <c r="A5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>89.992999999999995</v>
+      </c>
+      <c r="E5" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="F5" s="10">
+        <v>9.1439500000000002</v>
+      </c>
+      <c r="G5" s="10">
+        <v>9.2900000000000003E-4</v>
+      </c>
+      <c r="H5" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20">
+      <c r="A6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>89.811000000000007</v>
+      </c>
+      <c r="E6" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="F6" s="10">
+        <v>9.1447459999999996</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2.8289000000000002E-2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20">
+      <c r="A7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="10">
+        <v>8.5960000000000001</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>89.629000000000005</v>
+      </c>
+      <c r="E7" s="10">
+        <v>8.5960000000000001</v>
+      </c>
+      <c r="F7" s="10">
+        <v>9.1454529999999998</v>
+      </c>
+      <c r="G7" s="10">
+        <v>5.5648000000000003E-2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20">
+      <c r="A9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-2E-3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>90.015000000000001</v>
+      </c>
+      <c r="E9" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="F9" s="10">
+        <v>9.1438520000000008</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-2.2629999999999998E-3</v>
+      </c>
+      <c r="H9" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20">
+      <c r="A10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="C10" s="10">
+        <v>-2E-3</v>
+      </c>
+      <c r="D10" s="10">
+        <v>90.012</v>
+      </c>
+      <c r="E10" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="F10" s="10">
+        <v>9.1438659999999992</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-1.807E-3</v>
+      </c>
+      <c r="H10" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20">
+      <c r="A11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="C11" s="10">
+        <v>-1E-3</v>
+      </c>
+      <c r="D11" s="10">
+        <v>90.009</v>
+      </c>
+      <c r="E11" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="F11" s="10">
+        <v>9.1438799999999993</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-1.351E-3</v>
+      </c>
+      <c r="H11" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20">
+      <c r="A12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="C12" s="10">
+        <v>-1E-3</v>
+      </c>
+      <c r="D12" s="10">
+        <v>90.006</v>
+      </c>
+      <c r="E12" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="F12" s="10">
+        <v>9.1438939999999995</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-8.9499999999999996E-4</v>
+      </c>
+      <c r="H12" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21">
+      <c r="A13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="13">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>90.001999999999995</v>
+      </c>
+      <c r="E13" s="13">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="F13" s="13">
+        <v>9.1439079999999997</v>
+      </c>
+      <c r="G13" s="13">
+        <v>-4.3899999999999999E-4</v>
+      </c>
+      <c r="H13" s="13">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20">
+      <c r="A14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>89.998999999999995</v>
+      </c>
+      <c r="E14" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="F14" s="10">
+        <v>9.1439219999999999</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.7E-5</v>
+      </c>
+      <c r="H14" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20">
+      <c r="A15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="D15" s="10">
+        <v>89.995999999999995</v>
+      </c>
+      <c r="E15" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="F15" s="10">
+        <v>9.1439360000000001</v>
+      </c>
+      <c r="G15" s="10">
+        <v>4.73E-4</v>
+      </c>
+      <c r="H15" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20">
+      <c r="A16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="D16" s="10">
+        <v>89.992999999999995</v>
+      </c>
+      <c r="E16" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="F16" s="10">
+        <v>9.1439500000000002</v>
+      </c>
+      <c r="G16" s="10">
+        <v>9.2900000000000003E-4</v>
+      </c>
+      <c r="H16" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20">
+      <c r="A17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="D17" s="10">
+        <v>89.99</v>
+      </c>
+      <c r="E17" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="F17" s="10">
+        <v>9.1439640000000004</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1.3849999999999999E-3</v>
+      </c>
+      <c r="H17" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20">
+      <c r="A18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="D18" s="10">
+        <v>89.986999999999995</v>
+      </c>
+      <c r="E18" s="10">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="F18" s="10">
+        <v>9.1439780000000006</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1.841E-3</v>
+      </c>
+      <c r="H18" s="10">
+        <v>16.75</v>
       </c>
     </row>
   </sheetData>
